--- a/pred_ohlcv/54_21/2020-01-26 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 REP ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>1939.647425692897</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2306.799425692897</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2839.877325692898</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2836.346325692898</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2934.817725692898</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2934.817725692898</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2934.848625692898</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2934.848625692898</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2892.824825692898</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2880.074825692898</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2880.115725692898</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2880.115725692898</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2969.499425692898</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2969.560252943506</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>2969.528452943506</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>2966.022352943506</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>2966.022352943506</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2966.053752943506</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2966.053752943506</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>2923.490952943505</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>9705.343325692897</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>9963.073225692897</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>10655.56454091163</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>10590.36924091163</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>10360.1871889042</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>10568.9699889042</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>10916.6552889042</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>10638.80350794345</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>10638.80350794345</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>10587.19335829639</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>10307.10346989663</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>10375.81738883962</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>10335.32506577185</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>10261.70396577185</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>10307.51066577184</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>10569.48696577184</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>10576.27426577184</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>10624.26466577185</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>10624.26466577185</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>10696.87826577185</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>10644.00036577185</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>10628.52496577185</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>10649.09396577185</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>10654.82066577185</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>10654.82066577185</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>10357.62916577184</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>10357.62916577184</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>10369.54126577184</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>10369.54126577184</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>11084.35926577184</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>11084.35926577184</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>11176.75176577184</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>11191.98186577184</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>11543.39756577184</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>11684.74526577184</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>11761.74506577184</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>12442.26476623723</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>13151.65984847219</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>12870.55014847219</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>12914.88544847219</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>13230.52044847219</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>13230.52044847219</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>13301.59734847219</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>14055.01928008236</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>14061.71244597831</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>14021.12504597831</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>14211.80014597831</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>14232.79834597831</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>17238.23764443447</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>16993.4521234228</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>17198.6282234228</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>17329.6739234228</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>17329.6739234228</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>18007.63285174138</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>17968.08395174138</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>17875.82215174138</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>17232.97065174138</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>17329.92045174138</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>17260.51624268604</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>16993.14064268604</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>17280.53554268604</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>16992.45514268604</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>16992.45514268604</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>17214.01264268604</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>17341.38554268604</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>18090.62084268604</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>17040.59854268604</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>17412.56014268604</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>17145.70684268604</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>17354.69168781482</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>17193.29718781482</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>17173.35958781482</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>16701.49708781482</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>15647.33518781482</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>14855.75528781482</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>14970.97268781482</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>15375.37178781482</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>15375.37178781482</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>15313.95288781482</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>14574.23558781482</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>8435.547446396504</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>9144.446836196032</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>9144.446836196032</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>8823.508236196032</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>8824.508236196032</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>8824.756036196031</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>5173.027602010493</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>4594.415402010492</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>4452.234802010493</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>4592.719002010494</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>4355.281602010495</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>3766.163702010494</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>3776.226702010495</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>3885.061402010494</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>3886.239502010495</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>4045.861702010494</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>4045.861702010494</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>4368.095202010494</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>5170.496002010495</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 REP ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>1939.647425692897</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2306.799425692897</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2839.877325692898</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2836.346325692898</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2934.817725692898</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2934.817725692898</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2934.848625692898</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2934.848625692898</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2892.824825692898</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2880.074825692898</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2880.115725692898</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2880.115725692898</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2969.499425692898</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2969.560252943506</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>2969.528452943506</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>2966.022352943506</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>2966.022352943506</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2966.053752943506</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2966.053752943506</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>2923.490952943505</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>9705.343325692897</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>9963.073225692897</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>10655.56454091163</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>10590.36924091163</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>10360.1871889042</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>10568.9699889042</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>10916.6552889042</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>10638.80350794345</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>10638.80350794345</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>10587.19335829639</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>10307.10346989663</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>10375.81738883962</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>10335.32506577185</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>10261.70396577185</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>10307.51066577184</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>10569.48696577184</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>10576.27426577184</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>10624.26466577185</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>10624.26466577185</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>10696.87826577185</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>10644.00036577185</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>10628.52496577185</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>10649.09396577185</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>10654.82066577185</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>10654.82066577185</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>10357.62916577184</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>10357.62916577184</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>10369.54126577184</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>10369.54126577184</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>11084.35926577184</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>11084.35926577184</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>11176.75176577184</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>11191.98186577184</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>11543.39756577184</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>11684.74526577184</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>11761.74506577184</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>12442.26476623723</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>13151.65984847219</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>12870.55014847219</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>12914.88544847219</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>13230.52044847219</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>13230.52044847219</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>13301.59734847219</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>16408.51914691907</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>16267.11964691907</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>16267.18074691907</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>14055.01928008236</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>14061.71244597831</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>14021.12504597831</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>14211.80014597831</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>14232.79834597831</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>15404.65330240719</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>15642.49885016504</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>15974.01806695332</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>16243.07789363216</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>18432.41284310114</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>17238.23764443447</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>16993.4521234228</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>17198.6282234228</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>17329.6739234228</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>17329.6739234228</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>18007.63285174138</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>17968.08395174138</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>17875.82215174138</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>17232.97065174138</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>17329.92045174138</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>17260.51624268604</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>16993.14064268604</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>17280.53554268604</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>16992.45514268604</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>16992.45514268604</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>17214.01264268604</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>17341.38554268604</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>18090.62084268604</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>17040.59854268604</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>17412.56014268604</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>17145.70684268604</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>17354.69168781482</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>17193.29718781482</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>17173.35958781482</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>16701.49708781482</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>15647.33518781482</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>14855.75528781482</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>8435.547446396504</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>9144.446836196032</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>9144.446836196032</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>8823.508236196032</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>8824.508236196032</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>8824.756036196031</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>5173.027602010493</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>4594.415402010492</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>4452.234802010493</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>4592.719002010494</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>4355.281602010495</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>3766.163702010494</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>3776.226702010495</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>3885.061402010494</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>3886.239502010495</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>4045.861702010494</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>4045.861702010494</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>4368.095202010494</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>5170.496002010495</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
